--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/chen_liu_vanderbilt_edu/Documents/Decision Analysis 2/FINAL PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuc43/Documents/GitHub/Weight-Loss-Medication-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1919" documentId="8_{6E917B29-0005-A044-87D0-797C44874429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0024A072-8872-3944-82B3-5FB5D1CDDE6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EC661D-D736-3742-995C-237AF5A0C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" activeTab="1" xr2:uid="{96DC594E-6D50-554A-B2BF-BCE2D1A92884}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="303">
   <si>
     <t>p_healthy</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>Cost Input</t>
+  </si>
+  <si>
+    <t>fks;fkjas;dlkfjasl/dkfjl;askjfsd</t>
   </si>
 </sst>
 </file>
@@ -1240,17 +1243,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1295,46 +1287,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1356,6 +1317,48 @@
     </xf>
     <xf numFmtId="6" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3845,10 +3848,6 @@
 </FeaturePropertyBags>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4188,80 +4187,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="39" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="48">
         <v>13618</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="46" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="48">
         <v>11309</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="47" t="s">
         <v>243</v>
       </c>
       <c r="I3" s="36"/>
@@ -4270,55 +4269,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="65" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="48">
         <v>2034</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="50" t="s">
         <v>245</v>
       </c>
       <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="39" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="48">
         <v>1355</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="46" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4657,7 +4656,7 @@
       <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="73" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4668,7 +4667,7 @@
       <c r="B4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5396,10 +5395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466E40EB-D50E-2548-9AA6-8627F387D3D8}">
-  <dimension ref="A2:H97"/>
+  <dimension ref="A2:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6017,6 +6016,11 @@
       <c r="G97" s="38">
         <f>'CEA result 2yr pp'!D35</f>
         <v>-70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7238,7 +7242,7 @@
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="73" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7249,7 +7253,7 @@
       <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -7382,7 +7386,7 @@
         <f>-13.7/100</f>
         <v>-0.13699999999999998</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="72" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7396,7 +7400,7 @@
       <c r="C18" s="6">
         <v>-0.05</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -7408,7 +7412,7 @@
       <c r="C19" s="5">
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="72"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
@@ -7420,7 +7424,7 @@
       <c r="C20" s="5">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
@@ -7437,7 +7441,7 @@
       <c r="C22" s="6">
         <v>-0.3</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="72" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7448,7 +7452,7 @@
       <c r="C23" s="6">
         <v>-0.2</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="72"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -7457,7 +7461,7 @@
       <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="72"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -7466,7 +7470,7 @@
       <c r="C25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -7783,611 +7787,618 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="53" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="59"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="66">
         <v>29</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="62"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="67">
         <v>0</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="62"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="76" t="s">
         <v>296</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="66">
         <v>0.46700000000000003</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="60" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="66">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="60" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="76" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="62"/>
+      <c r="E12" s="60"/>
     </row>
     <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="67" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="62"/>
+      <c r="E13" s="60"/>
     </row>
     <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="67" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="62"/>
+      <c r="E14" s="60"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="68">
         <v>0</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="60"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="69">
         <f>-13.7/100</f>
         <v>-0.13699999999999998</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="62"/>
+      <c r="E17" s="60"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="69">
         <v>-0.05</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="62"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="66">
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="62"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="66">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="62"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="60"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:5" ht="70" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="60" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="56" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="60" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="126" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="60" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="60"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="66">
         <v>3.3E-3</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="62" t="s">
+      <c r="C28" s="80"/>
+      <c r="D28" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="60"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="66">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="66">
         <v>0.22</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="62" t="s">
+      <c r="C30" s="80"/>
+      <c r="D30" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="62"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="66">
         <v>0.23</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="62" t="s">
+      <c r="C31" s="80"/>
+      <c r="D31" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="62"/>
+      <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="62"/>
+      <c r="E32" s="60"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="62" t="s">
+      <c r="C33" s="74"/>
+      <c r="D33" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="62"/>
+      <c r="E33" s="60"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="62" t="s">
+      <c r="C34" s="74"/>
+      <c r="D34" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="62"/>
+      <c r="E34" s="60"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="62" t="s">
+      <c r="C35" s="74"/>
+      <c r="D35" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="62"/>
+      <c r="E35" s="60"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="62" t="s">
+      <c r="C36" s="74"/>
+      <c r="D36" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="62"/>
+      <c r="E36" s="60"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="60" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="80">
+      <c r="B39" s="71">
         <f>12022*(110.22/117.996)</f>
         <v>11229.743720126105</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="62" t="s">
+      <c r="E39" s="60" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="60" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="75">
+      <c r="B41" s="66">
         <v>0</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="60"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B42" s="66">
         <v>13618</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="62"/>
+      <c r="E42" s="60"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="75">
+      <c r="B43" s="66">
         <v>11309</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="62" t="s">
+      <c r="C43" s="75"/>
+      <c r="D43" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="62"/>
+      <c r="E43" s="60"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="75">
+      <c r="B44" s="66">
         <v>1355</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="75"/>
+      <c r="D44" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="62"/>
+      <c r="E44" s="60"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="75">
+      <c r="B45" s="66">
         <v>2034</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="62" t="s">
+      <c r="C45" s="75"/>
+      <c r="D45" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="62"/>
+      <c r="E45" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="A7:C7"/>
@@ -8396,13 +8407,6 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1" display="https://doi.org/10.1161/CIR.0000000000001303" xr:uid="{2DD95560-92BB-1040-A995-631E3187DCE2}"/>
@@ -8475,7 +8479,7 @@
       <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="73" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8486,7 +8490,7 @@
       <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -8633,7 +8637,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="72" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8649,7 +8653,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="45"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -8667,7 +8671,7 @@
       <c r="E19" s="5">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
@@ -8679,7 +8683,7 @@
       <c r="C20" s="5">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuc43/Documents/GitHub/Weight-Loss-Medication-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/chen_liu_vanderbilt_edu/Documents/Decision Analysis 2/FINAL PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EC661D-D736-3742-995C-237AF5A0C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1928" documentId="8_{6E917B29-0005-A044-87D0-797C44874429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1685AF57-DB06-494D-8551-092123808F12}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" activeTab="1" xr2:uid="{96DC594E-6D50-554A-B2BF-BCE2D1A92884}"/>
+    <workbookView xWindow="-4380" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{96DC594E-6D50-554A-B2BF-BCE2D1A92884}"/>
   </bookViews>
   <sheets>
     <sheet name="Tradeoffs" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="305">
   <si>
     <t>p_healthy</t>
   </si>
@@ -958,7 +958,13 @@
     <t>Cost Input</t>
   </si>
   <si>
-    <t>fks;fkjas;dlkfjasl/dkfjl;askjfsd</t>
+    <t>Tirzapetide</t>
+  </si>
+  <si>
+    <t>Metformin</t>
+  </si>
+  <si>
+    <t>Xenical, Alli</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1163,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1358,6 +1364,18 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3848,6 +3866,10 @@
 </FeaturePropertyBags>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4165,13 +4187,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA39AF6A-B798-6841-9079-FBF9B902FB7B}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="185" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4322,20 +4344,56 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="81"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="81"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="81"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://icer.org/wp-content/uploads/2022/03/ICER_Obesity_Final_Evidence_Report_and_Meeting_Summary_102022.pdf" xr:uid="{8B0B475C-1445-0A49-8052-8B8940A26282}"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://icer.org/wp-content/uploads/2022/03/ICER_Obesity_Final_Evidence_Report_and_Meeting_Summary_102022.pdf" xr:uid="{8B0B475C-1445-0A49-8052-8B8940A26282}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4345,7 +4403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA08B61-6711-E842-AE44-025E593BC187}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4812,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD35952-AB92-E844-A8E7-2CB3D4570E4F}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="131" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5395,10 +5453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466E40EB-D50E-2548-9AA6-8627F387D3D8}">
-  <dimension ref="A2:H104"/>
+  <dimension ref="A2:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView zoomScale="150" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6016,11 +6074,6 @@
       <c r="G97" s="38">
         <f>'CEA result 2yr pp'!D35</f>
         <v>-70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7199,8 +7252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D46EC1-E649-AE41-B9C7-6CC3E25C1038}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7368,12 +7421,10 @@
       <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>108</v>
-      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -7767,10 +7818,9 @@
     <hyperlink ref="D12" r:id="rId1" display="https://doi.org/10.1161/CIR.0000000000001303" xr:uid="{5FAAD6D3-F882-3646-B222-CBC8C9ECE2E6}"/>
     <hyperlink ref="D13" r:id="rId2" display="https://doi.org/10.1161/CIR.0000000000001303" xr:uid="{DDFA0CAA-8BB1-F149-A546-0D05C86E9179}"/>
     <hyperlink ref="D14" r:id="rId3" display="https://doi.org/10.1161/CIR.0000000000001303" xr:uid="{DB8A4F04-F20A-1C40-8B92-72EE046C654C}"/>
-    <hyperlink ref="D16" r:id="rId4" display="https://doi-org.proxy.library.vanderbilt.edu/10.1111/cob.12294" xr:uid="{C2062E08-B4CE-AA4D-98D6-FB2026B2878A}"/>
-    <hyperlink ref="D48" r:id="rId5" display="https://www-ahajournals-org.proxy.library.vanderbilt.edu/doi/abs/10.1161/CIR.0000000000001258" xr:uid="{47710971-4F83-D44E-B505-73E64149644C}"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://doi.org/10.1161/CIR.0000000000001303" xr:uid="{F747604D-6A26-D840-A932-07D14ABE05A6}"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://doi.org/10.1161/CIR.0000000000001303" xr:uid="{2E72B5BD-456E-E140-B905-EFBC1801D5D9}"/>
+    <hyperlink ref="D48" r:id="rId4" display="https://www-ahajournals-org.proxy.library.vanderbilt.edu/doi/abs/10.1161/CIR.0000000000001258" xr:uid="{47710971-4F83-D44E-B505-73E64149644C}"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://doi.org/10.1161/CIR.0000000000001303" xr:uid="{F747604D-6A26-D840-A932-07D14ABE05A6}"/>
+    <hyperlink ref="D10" r:id="rId6" display="https://doi.org/10.1161/CIR.0000000000001303" xr:uid="{2E72B5BD-456E-E140-B905-EFBC1801D5D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8428,7 +8478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FCA600-DA3A-374E-A964-F9CBC0FB34FF}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
